--- a/work_exam_score_retrieve/works/work_51498365.xlsx
+++ b/work_exam_score_retrieve/works/work_51498365.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0B6B21-FCF6-4B56-B117-7DA3978FF2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="17930" yWindow="5970" windowWidth="16780" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t>personid</t>
   </si>
@@ -31,42 +32,6 @@
     <t>课程</t>
   </si>
   <si>
-    <t>17904313</t>
-  </si>
-  <si>
-    <t>17909951</t>
-  </si>
-  <si>
-    <t>18156813</t>
-  </si>
-  <si>
-    <t>18210920</t>
-  </si>
-  <si>
-    <t>18534515</t>
-  </si>
-  <si>
-    <t>18569680</t>
-  </si>
-  <si>
-    <t>19112900</t>
-  </si>
-  <si>
-    <t>19377928</t>
-  </si>
-  <si>
-    <t>19594386</t>
-  </si>
-  <si>
-    <t>20223448</t>
-  </si>
-  <si>
-    <t>20223726</t>
-  </si>
-  <si>
-    <t>20262915</t>
-  </si>
-  <si>
     <t>111945069</t>
   </si>
   <si>
@@ -236,13 +201,49 @@
   </si>
   <si>
     <t>姆耶赛尔·赛麦提</t>
+  </si>
+  <si>
+    <t>水的物性</t>
+  </si>
+  <si>
+    <t>水静力学</t>
+  </si>
+  <si>
+    <t>流束理论</t>
+  </si>
+  <si>
+    <t>水头损失</t>
+  </si>
+  <si>
+    <t>管道流动</t>
+  </si>
+  <si>
+    <t>明渠流动</t>
+  </si>
+  <si>
+    <t>河流动力学基础</t>
+  </si>
+  <si>
+    <t>高坝泄洪</t>
+  </si>
+  <si>
+    <t>模型试验</t>
+  </si>
+  <si>
+    <t>工程渗流</t>
+  </si>
+  <si>
+    <t>流场理论</t>
+  </si>
+  <si>
+    <t>知识点复习</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,125 +278,133 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -451,8 +460,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -474,8 +483,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -491,8 +500,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -529,23 +538,25 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,57 +573,57 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -639,7 +650,7 @@
         <v>95</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>77.400001525878906</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -651,21 +662,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -704,21 +715,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -733,13 +744,13 @@
         <v>84</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>82.199996948242188</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>90.800003051757813</v>
       </c>
       <c r="M4">
         <v>92</v>
@@ -757,21 +768,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>89</v>
@@ -786,13 +797,13 @@
         <v>86</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>85.199996948242188</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>89.5</v>
       </c>
       <c r="M5">
         <v>91</v>
@@ -810,21 +821,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>97</v>
@@ -845,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>85.800003051757813</v>
       </c>
       <c r="M6">
         <v>82</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>77.800003051757813</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -863,21 +874,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>91</v>
@@ -898,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>85.800003051757813</v>
       </c>
       <c r="M7">
         <v>89</v>
@@ -916,24 +927,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -951,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>90.800003051757813</v>
       </c>
       <c r="M8">
         <v>95</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>95.199996948242188</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -969,21 +980,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>89</v>
@@ -1004,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>89.800003051757813</v>
       </c>
       <c r="M9">
         <v>72</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>85.400001525878906</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1022,21 +1033,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>90</v>
@@ -1057,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>95.800003051757813</v>
       </c>
       <c r="M10">
         <v>86</v>
@@ -1075,21 +1086,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>93</v>
@@ -1110,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>92.800003051757813</v>
       </c>
       <c r="M11">
         <v>93</v>
@@ -1128,24 +1139,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1157,13 +1168,13 @@
         <v>76</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>87.199996948242188</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>84.5</v>
       </c>
       <c r="M12">
         <v>95</v>
@@ -1181,24 +1192,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1216,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>83.699996948242188</v>
       </c>
       <c r="M13">
         <v>86</v>
@@ -1234,21 +1245,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>99</v>
@@ -1269,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>96.800003051757813</v>
       </c>
       <c r="M14">
         <v>100</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>99.199996948242188</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1287,21 +1298,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>97</v>
@@ -1322,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>89.800003051757813</v>
       </c>
       <c r="M15">
         <v>87</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>84.400001525878906</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1340,24 +1351,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1369,19 +1380,19 @@
         <v>91</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>86.199996948242188</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>95.800003051757813</v>
       </c>
       <c r="M16">
         <v>92</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>78.800003051757813</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1393,24 +1404,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1422,19 +1433,19 @@
         <v>94</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>67.599998474121094</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="M17">
         <v>91</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>73.800003051757813</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1446,21 +1457,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>84</v>
@@ -1481,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>88.699996948242188</v>
       </c>
       <c r="M18">
         <v>90</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>81.400001525878906</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1499,21 +1510,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>92</v>
@@ -1534,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>78.699996948242188</v>
       </c>
       <c r="M19">
         <v>92</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>82.400001525878906</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1552,21 +1563,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>98</v>
@@ -1587,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="M20">
         <v>87</v>
@@ -1605,21 +1616,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>83</v>
@@ -1634,19 +1645,19 @@
         <v>81</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>68.599998474121094</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>83.5</v>
       </c>
       <c r="M21">
         <v>80</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>92.400001525878906</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1658,21 +1669,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>98</v>
@@ -1693,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>96.800003051757813</v>
       </c>
       <c r="M22">
         <v>92</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>91.800003051757813</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1711,21 +1722,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>85</v>
@@ -1746,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>91.800003051757813</v>
       </c>
       <c r="M23">
         <v>94</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>82.400001525878906</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1764,21 +1775,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>80</v>
@@ -1799,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>83.5</v>
       </c>
       <c r="M24">
         <v>98</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>92.599998474121094</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1817,21 +1828,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>86</v>
@@ -1852,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>90.699996948242188</v>
       </c>
       <c r="M25">
         <v>98</v>
@@ -1870,21 +1881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>80</v>
@@ -1905,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>92.800003051757813</v>
       </c>
       <c r="M26">
         <v>97</v>
@@ -1923,21 +1934,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>93</v>
@@ -1958,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>96.800003051757813</v>
       </c>
       <c r="M27">
         <v>98</v>
@@ -1976,24 +1987,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2011,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>72.699996948242188</v>
       </c>
       <c r="M28">
         <v>62</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>75.800003051757813</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2030,5 +2041,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>